--- a/tasks/todo.xlsx
+++ b/tasks/todo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Saisie des données</t>
   </si>
   <si>
-    <t xml:space="preserve">Data.php</t>
+    <t xml:space="preserve">form.php</t>
   </si>
   <si>
     <t xml:space="preserve">affichage</t>
@@ -70,13 +70,31 @@
     <t xml:space="preserve">Entrée des données ( dons, besoins ) / formulaire d’insertion ( méthode POST )</t>
   </si>
   <si>
+    <t xml:space="preserve">Ivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VilleModel/BesoinModel/TypeModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllCities()/getAllTypes()/CreateBesoin()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">DonController / BesoinController</t>
   </si>
   <si>
-    <t xml:space="preserve">fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createDonation() et createNeeds()</t>
+    <t xml:space="preserve">traitement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">render→(besoins/form.php)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin</t>
   </si>
   <si>
     <t xml:space="preserve">Dispatch de dons </t>
@@ -88,10 +106,16 @@
     <t xml:space="preserve">liste des dons non distribués + bouton de distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">app\models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getDistributionBy()/createDistribution()/getAllDons()</t>
+  </si>
+  <si>
     <t xml:space="preserve">DonController</t>
   </si>
   <si>
-    <t xml:space="preserve">insertAttribution</t>
+    <t xml:space="preserve">insertDistribution/création de service</t>
   </si>
   <si>
     <t xml:space="preserve">Dashboard</t>
@@ -106,10 +130,151 @@
     <t xml:space="preserve">Liste des villes avec les dons qui les leurs sont attribués</t>
   </si>
   <si>
+    <t xml:space="preserve">villeModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création de la vue (v_ville_besoins_dons_detail)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BesoinController</t>
   </si>
   <si>
     <t xml:space="preserve">GetAllCityNeeds()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 1 (globalité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toutes les pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front-end </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification des anciennes tables et ajout des tables (achat, achat_don, frais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AchatModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation de l’achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AchatController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render → (/list.php)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saisie.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton de validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validationAchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire de filtre de ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reception de l’id_ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllAchat($id_ville)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récapitulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recap/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage des données demandées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecapModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getRecap()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecapController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render → (recap/index.php)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 2 (globalité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toutes les nouvelles pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css (front)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispatch (quantite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation/simulate.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire de choix de méthode (input type radio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispatch (quantité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BesoinModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMinBesoinByIdType()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">même fonction que dispatch dons avec ordre de distribution ville qui demande le moins de quantité de besoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispatch (proportionnalité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire de choix multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllBesoinByIdType()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">même fonction que dispatch dons avec distribution de besoins par rapport à la proportionnalité du reste des besoins de chaque ville et le reste de dons disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réinitialisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ville.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création du bouton de réinitialisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">villeController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResetSimulation() → drop table et chargement des données dans le fichier test.sql</t>
   </si>
 </sst>
 </file>
@@ -124,6 +289,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,20 +355,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,163 +559,622 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="32:32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="137.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>29</v>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
